--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  감염자들에 대한 라이타니엔의 온화한 태도는 그저 혈통과 아츠 보급 때문일 뿐, 그들이 진정으로 네 녀석들을 받아들인 건 아니었나 보군.
+    <t xml:space="preserve">[name="살카즈 전사"]  감염자들에 대한 라이타니아의 온화한 태도는 그저 혈통과 아츠 보급 때문일 뿐, 그들이 진정으로 네 녀석들을 받아들인 건 아니었나 보군.
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  라이타니엔 놈들이 귀찮게 하진 않을까?
+    <t xml:space="preserve">[name="살카즈 전사"]  라이타니아 놈들이 귀찮게 하진 않을까?
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  그럼 어서 여길 떠야겠군. 라이타니엔에서 우릴 수배할지도 모르니.
+    <t xml:space="preserve">[name="무장 감염자"]  그럼 어서 여길 떠야겠군. 라이타니아에서 우릴 수배할지도 모르니.
 </t>
   </si>
   <si>
@@ -2216,7 +2216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  네 말이 맞다…… 하지만 '리유니온'이 사라지지 않았단 소문이, 이미 라이타니엔의 감염자들 사이에 퍼지고 있다.
+    <t xml:space="preserve">[name="머드락"]  네 말이 맞다…… 하지만 '리유니온'이 사라지지 않았단 소문이, 이미 라이타니아의 감염자들 사이에 퍼지고 있다.
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  라이타니엔인과 살카즈는, 모두 각자의 생각을 가지고 있다.
+    <t xml:space="preserve">[name="머드락"]  라이타니아인과 살카즈는, 모두 각자의 생각을 가지고 있다.
 </t>
   </si>
   <si>
@@ -2392,7 +2392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  아니면 라이타니엔이 너희를 의심이라도 하는 날엔, 쉽게 빠져나올 수는 없을 거다.
+    <t xml:space="preserve">[name="머드락"]  아니면 라이타니아가 너희를 의심이라도 하는 날엔, 쉽게 빠져나올 수는 없을 거다.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I know a certain “elite operator” she liked to get drunk with.
+    <t xml:space="preserve">[name="GreyThroat"]  I know a certain 'elite operator' she liked to get drunk with.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No... I’ve calmed down past that. I’m only reevaluating, maybe what I thought was “done wrong” just “couldn’t be done.”
+    <t xml:space="preserve">[name="Folinic"]  No... I’ve calmed down past that. I’m only reevaluating, maybe what I thought was 'done wrong' just 'couldn’t be done.'
 </t>
   </si>
   <si>
@@ -1608,11 +1608,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  What are you going to do next? “Reunion” is still a big problem for many people. You should let go of that symbol.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  You’re right. But “Reunion” is not dead. And this news has spread among the Infected in Leithania.
+    <t xml:space="preserve">[name="GreyThroat"]  What are you going to do next? 'Reunion' is still a big problem for many people. You should let go of that symbol.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  You’re right. But 'Reunion' is not dead. And this news has spread among the Infected in Leithania.
 </t>
   </si>
   <si>
@@ -1624,7 +1624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Say... Rhodes Island, have you ever heard the name “Big Bob?”
+    <t xml:space="preserve">[name="Mudrock"]  Say... Rhodes Island, have you ever heard the name 'Big Bob?'
 </t>
   </si>
   <si>
@@ -1728,7 +1728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  “Our fellow Infected.”
+    <t xml:space="preserve">[name="Folinic"]  'Our fellow Infected.'
 </t>
   </si>
   <si>
@@ -1744,7 +1744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Any real “good place” is closed to us.
+    <t xml:space="preserve">[name="Mudrock"]  Any real 'good place' is closed to us.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, they’re hunting down the last fugitives.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, they're hunting down the last fugitives.
 </t>
   </si>
   <si>
@@ -1252,11 +1252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  I can’t tell if they’re being cruel or kind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  The ones who didn’t follow us are not our problem, but...
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  I can't tell if they're being cruel or kind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  The ones who didn't follow us are not our problem, but...
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  It’s already cold.
+    <t xml:space="preserve">[name="Mudrock"]  It's already cold.
 </t>
   </si>
   <si>
@@ -1272,11 +1272,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We’ve been wandering for so long. Where does it end? It definitely won’t end well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Then, let’s go home.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We've been wandering for so long. Where does it end? It definitely won't end well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Then, let's go home.
 </t>
   </si>
   <si>
@@ -1296,7 +1296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  We’re going home? To what home?
+    <t xml:space="preserve">[name="Armed Infected"]  We're going home? To what home?
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  But what about us? We’re not Sarkaz. That’s...
+    <t xml:space="preserve">[name="Armed Infected"]  But what about us? We're not Sarkaz. That's...
 </t>
   </si>
   <si>
@@ -1344,11 +1344,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Maybe we can live in peace in Kazdel. It’s full of Infected Sarkaz.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Leithania’s leniency toward the Infected is ultimately just a product of the popularity of bloodlines and Originium Arts. It doesn’t mean they truly accept you.
+    <t xml:space="preserve">[name="Armed Infected"]  Maybe we can live in peace in Kazdel. It's full of Infected Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Leithania's leniency toward the Infected is ultimately just a product of the popularity of bloodlines and Originium Arts. It doesn't mean they truly accept you.
 </t>
   </si>
   <si>
@@ -1356,19 +1356,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  It’s not just Oripathy. This rich country has forgotten all the depressed corners of our world.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  A tragedy like Wolumonde’s is just a mild annoyance for the aristocrats. It’s a topic of conversation for the bankers and court artists at tea time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  We can’t accept it. We won’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  So we leave. We’ll go to Kazdel. Let’s see your hometown.
+    <t xml:space="preserve">[name="Armed Infected"]  It's not just Oripathy. This rich country has forgotten all the depressed corners of our world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  A tragedy like Wolumonde's is just a mild annoyance for the aristocrats. It's a topic of conversation for the bankers and court artists at tea time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  We can't accept it. We won't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  So we leave. We'll go to Kazdel. Let's see your hometown.
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  It’s just the way he does things. Based on the information he has, he will do what causes the least amount of damage to his town.
+    <t xml:space="preserve">[name="Mudrock"]  It's just the way he does things. Based on the information he has, he will do what causes the least amount of damage to his town.
 </t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  So that’s where you were.
+    <t xml:space="preserve">[name="Folinic"]  So that's where you were.
 </t>
   </si>
   <si>
@@ -1428,11 +1428,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No, don’t get up. I won’t get too close to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  You’re waiting for someone, aren’t you?
+    <t xml:space="preserve">[name="Folinic"]  No, don't get up. I won't get too close to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  You're waiting for someone, aren't you?
 </t>
   </si>
   <si>
@@ -1440,11 +1440,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I wasn’t on the Rhodes Island landship when the Reunion incident happened. You... changed a lot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  You’re very different from what the rumors say about you.
+    <t xml:space="preserve">[name="Folinic"]  I wasn't on the Rhodes Island landship when the Reunion incident happened. You... changed a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  You're very different from what the rumors say about you.
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  And we weren’t able to solve... anything.
+    <t xml:space="preserve">[name="GreyThroat"]  And we weren't able to solve... anything.
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I have to thank you again. I don’t know how things would have turned out without you and Lisa.
+    <t xml:space="preserve">[name="Folinic"]  I have to thank you again. I don't know how things would have turned out without you and Lisa.
 </t>
   </si>
   <si>
@@ -1484,7 +1484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Don’t push yourself to mourn anything or anyone. It’s over now.
+    <t xml:space="preserve">[name="GreyThroat"]  Don't push yourself to mourn anything or anyone. It's over now.
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  She would have blamed me, wouldn’t she?
+    <t xml:space="preserve">[name="Folinic"]  She would have blamed me, wouldn't she?
 </t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Heh... you’re right. Seems like you knew her well?
+    <t xml:space="preserve">[name="Folinic"]  Heh... you're right. Seems like you knew her well?
 </t>
   </si>
   <si>
@@ -1516,7 +1516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  We’re not the only ones who have given up on chasing all this.
+    <t xml:space="preserve">[name="GreyThroat"]  We're not the only ones who have given up on chasing all this.
 </t>
   </si>
   <si>
@@ -1544,11 +1544,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  I don’t blame Severin. This is the only thing he can tell the nobles, or his people will be the ones to suffer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  We too will leave here soon. It’s just that, some of our people died here... I don’t want to leave without saying goodbye.
+    <t xml:space="preserve">[name="Mudrock"]  I don't blame Severin. This is the only thing he can tell the nobles, or his people will be the ones to suffer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  We too will leave here soon. It's just that, some of our people died here... I don't want to leave without saying goodbye.
 </t>
   </si>
   <si>
@@ -1564,15 +1564,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No... it’s not your fault. I wasn’t blaming you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m just reflecting on it. Thinking about how it came to this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Of course, I know the world is not fair. Good things don’t come to good people. But also... rarely have I ever seen such self-destructiveness.
+    <t xml:space="preserve">[name="Folinic"]  No... it's not your fault. I wasn't blaming you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'm just reflecting on it. Thinking about how it came to this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Of course, I know the world is not fair. Good things don't come to good people. But also... rarely have I ever seen such self-destructiveness.
 </t>
   </si>
   <si>
@@ -1580,15 +1580,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  You’re still blaming yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  No... I’ve calmed down past that. I’m only reevaluating, maybe what I thought was 'done wrong' just 'couldn’t be done.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Everything from Rhodes Island, everything Dr. Kal'tsit taught me... I just couldn’t do it.
+    <t xml:space="preserve">[name="GreyThroat"]  You're still blaming yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  No... I've calmed down past that. I'm only reevaluating, maybe what I thought was 'done wrong' just 'couldn't be done.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Everything from Rhodes Island, everything Dr. Kal'tsit taught me... I just couldn't do it.
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  I stopped them from crossing the line, but one or two stops can’t quench their vengeful rage.
+    <t xml:space="preserve">[name="Mudrock"]  I stopped them from crossing the line, but one or two stops can't quench their vengeful rage.
 </t>
   </si>
   <si>
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  You’re right. But 'Reunion' is not dead. And this news has spread among the Infected in Leithania.
+    <t xml:space="preserve">[name="Mudrock"]  You're right. But 'Reunion' is not dead. And this news has spread among the Infected in Leithania.
 </t>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  There are too many in my squad with no combat experience. I can’t decide their fate. They... perhaps they just want to live in peace.
+    <t xml:space="preserve">[name="Mudrock"]  There are too many in my squad with no combat experience. I can't decide their fate. They... perhaps they just want to live in peace.
 </t>
   </si>
   <si>
@@ -1632,11 +1632,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  If there’s a connection, I could search the archives.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  No. There isn’t. He’s just a friend of mine...
+    <t xml:space="preserve">[name="Folinic"]  If there's a connection, I could search the archives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  No. There isn't. He's just a friend of mine...
 </t>
   </si>
   <si>
@@ -1664,15 +1664,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Um, it’s a fine plant... it has something to do with the beer foam. Um, I think it prolongs the antiseptic—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  No. I don’t really have to explain this, do I? I’m not that familiar with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Let’s just say, it’s very handy.
+    <t xml:space="preserve">[name="Folinic"]  Um, it's a fine plant... it has something to do with the beer foam. Um, I think it prolongs the antiseptic—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  No. I don't really have to explain this, do I? I'm not that familiar with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Let's just say, it's very handy.
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Hey, don’t get lost thinking about beer. We’re still enemies here.
+    <t xml:space="preserve">[name="Folinic"]  Hey, don't get lost thinking about beer. We're still enemies here.
 </t>
   </si>
   <si>
@@ -1700,7 +1700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I have to say... it’s hard to feel your warrior spirit from your words and actions.
+    <t xml:space="preserve">[name="GreyThroat"]  I have to say... it's hard to feel your warrior spirit from your words and actions.
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  They won’t.
+    <t xml:space="preserve">[name="Mudrock"]  They won't.
 </t>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  We’re not good guys, Rhodes Island.
+    <t xml:space="preserve">[name="Mudrock"]  We're not good guys, Rhodes Island.
 </t>
   </si>
   <si>
@@ -1768,11 +1768,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  No, Rhodes Island Swallow. Maybe we’ll see each other again someday... to fight for the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  You’re not the first one from Reunion to call me that.
+    <t xml:space="preserve">[name="Mudrock"]  No, Rhodes Island Swallow. Maybe we'll see each other again someday... to fight for the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  You're not the first one from Reunion to call me that.
 </t>
   </si>
   <si>
@@ -1784,15 +1784,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Otherwise, Leithania will suspect you. And you won’t have an explanation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  So... don’t get too close to your enemy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  I came only to offer a bouquet. And I did. So... it’s time to go.
+    <t xml:space="preserve">[name="Mudrock"]  Otherwise, Leithania will suspect you. And you won't have an explanation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  So... don't get too close to your enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  I came only to offer a bouquet. And I did. So... it's time to go.
 </t>
   </si>
   <si>
@@ -1804,27 +1804,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I don’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I feel like I’ve been living a nightmare. And watching him walk away, it’s like finally waking up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s... over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’m not very good at comforting people, but—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I know you’re not the one who should be comforting me. Sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  We just have to let go of the grief. It’s not a good thing. It’s a compromise that lets us keep living.
+    <t xml:space="preserve">[name="Folinic"]  I don't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I feel like I've been living a nightmare. And watching him walk away, it's like finally waking up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  It's... over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  I'm not very good at comforting people, but—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I know you're not the one who should be comforting me. Sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  We just have to let go of the grief. It's not a good thing. It's a compromise that lets us keep living.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-2_end.xlsx
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  감염자들에 대한 라이타니아의 온화한 태도는 그저 혈통과 아츠 보급 때문일 뿐, 그들이 진정으로 네 녀석들을 받아들인 건 아니었나 보군.
+    <t xml:space="preserve">[name="살카즈 전사"]  감염자들에 대한 라이타니엔의 온화한 태도는 그저 혈통과 아츠 보급 때문일 뿐, 그들이 진정으로 네 녀석들을 받아들인 건 아니었나 보군.
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  라이타니아 놈들이 귀찮게 하진 않을까?
+    <t xml:space="preserve">[name="살카즈 전사"]  라이타니엔 놈들이 귀찮게 하진 않을까?
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  그럼 어서 여길 떠야겠군. 라이타니아에서 우릴 수배할지도 모르니.
+    <t xml:space="preserve">[name="무장 감염자"]  그럼 어서 여길 떠야겠군. 라이타니엔에서 우릴 수배할지도 모르니.
 </t>
   </si>
   <si>
@@ -2216,7 +2216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  네 말이 맞다…… 하지만 '리유니온'이 사라지지 않았단 소문이, 이미 라이타니아의 감염자들 사이에 퍼지고 있다.
+    <t xml:space="preserve">[name="머드락"]  네 말이 맞다…… 하지만 '리유니온'이 사라지지 않았단 소문이, 이미 라이타니엔의 감염자들 사이에 퍼지고 있다.
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  라이타니아인과 살카즈는, 모두 각자의 생각을 가지고 있다.
+    <t xml:space="preserve">[name="머드락"]  라이타니엔인과 살카즈는, 모두 각자의 생각을 가지고 있다.
 </t>
   </si>
   <si>
@@ -2392,7 +2392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  아니면 라이타니아가 너희를 의심이라도 하는 날엔, 쉽게 빠져나올 수는 없을 거다.
+    <t xml:space="preserve">[name="머드락"]  아니면 라이타니엔이 너희를 의심이라도 하는 날엔, 쉽게 빠져나올 수는 없을 거다.
 </t>
   </si>
   <si>
